--- a/primo anno/bozza esami 2 semestre.xlsx
+++ b/primo anno/bozza esami 2 semestre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\primo anno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F07A10DF-7FDA-495E-992B-E7A2C9262FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30AA3C3-2238-4ED1-AA03-DCFC2280F531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FC1BFF8D-446C-47F0-90CB-E2E16C60ECBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC1BFF8D-446C-47F0-90CB-E2E16C60ECBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -515,15 +515,17 @@
   <dimension ref="B4:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="32.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -546,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -567,7 +569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -594,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" s="7">
         <v>12</v>
       </c>
@@ -621,7 +623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="9">
         <v>19</v>
       </c>
@@ -644,7 +646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>26</v>
       </c>
@@ -661,7 +663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -672,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>3</v>
       </c>
@@ -695,7 +697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -718,7 +720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>17</v>
       </c>
@@ -741,7 +743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>24</v>
       </c>
@@ -764,7 +766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>31</v>
       </c>
